--- a/biology/Zoologie/Ichthyophthirius/Ichthyophthirius.xlsx
+++ b/biology/Zoologie/Ichthyophthirius/Ichthyophthirius.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ichthyophthirius est un genre de ciliés de la famille des Ichthyophthiriidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (8 décembre 2019)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (8 décembre 2019) :
 Ichthyophthirius browni Roque &amp; Puytorac, 1966
 Ichthyophthirius cryptostomus Zacharias, 1893
 Ichthyophthirius multifiliis Fouquet, 1876 - parasite responsable de l'Ichtyophthiriose</t>
@@ -544,9 +558,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Ichthyophthirius tire son nom du grec ancien ἰχθύς, ikhthús, « poisson », et φθείρ, phtheír, « pou »[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Ichthyophthirius tire son nom du grec ancien ἰχθύς, ikhthús, « poisson », et φθείρ, phtheír, « pou ».
 </t>
         </is>
       </c>
@@ -575,7 +591,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Daniel Fouquet, « Note sur une espèce d'infusoires parasites des poissons d'eau douce », Archives de zoologie expérimentale et générale, Paris, Inconnu, vol. 5, no 2,‎ 1876, p. 159-165 (ISSN 0003-9667 et 2419-6347, OCLC 1482076, lire en ligne)</t>
         </is>
